--- a/controller/Sample_Files/Household Spending.xlsx
+++ b/controller/Sample_Files/Household Spending.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suhasmalhotra/Desktop/ccrl/backend/controller/Sample_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suhasmalhotra/Desktop/Estimated files 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1C601A-88F7-6B44-8948-6553D12F7E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F387B14-6F8B-0840-AAC3-3229BB3D5C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17140"/>
   </bookViews>
